--- a/weather of cities.xlsx
+++ b/weather of cities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redak\Documents\UiPath\Automated-Climate-Data-Retrieval-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2CF63E1-8D61-4460-9630-4A09CDF8BBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BABA63-1AB9-420E-B6D8-1CD7CF2402B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3CCDF7CF-98DA-4FC8-A94A-B653328AB1A0}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{3CCDF7CF-98DA-4FC8-A94A-B653328AB1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Location</t>
   </si>
@@ -66,6 +66,24 @@
   </si>
   <si>
     <t>Maldives</t>
+  </si>
+  <si>
+    <t>18 km/h</t>
+  </si>
+  <si>
+    <t>34 km/h</t>
+  </si>
+  <si>
+    <t>14 km/h</t>
+  </si>
+  <si>
+    <t>2 km/h</t>
+  </si>
+  <si>
+    <t>8 km/h</t>
+  </si>
+  <si>
+    <t>32 km/h</t>
   </si>
 </sst>
 </file>
@@ -107,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,7 +458,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,30 +484,84 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
